--- a/biology/Zoologie/Bisounours/Bisounours.xlsx
+++ b/biology/Zoologie/Bisounours/Bisounours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  Bisounours, en France, ou les Calinours, au Canada français (en anglais : the Care Bears), sont une gamme américaine de jouets en peluche populaires dans les années 1980, commercialisée dans le monde par la société Kenner. Plus de 40 millions de ces ours, de toutes les couleurs, ont été vendus entre 1983 et 1987. Un nom, un symbole et un emploi ont été attachés à chaque ours. Par exemple, « Grosdodo » aide des enfants à dormir et il a un croissant de lune sur son estomac.
 Les jouets ont commencé comme des personnages de cartes de vœux en 1981. Plus tard, quelques jouets non-ours, les Cousins de Bisounours, ont été introduits.
@@ -514,12 +526,49 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il y a quatre générations de Bisounours.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a quatre générations de Bisounours.
 Ci-dessous se trouve la liste exhaustive des Bisounours et de leurs cousins, triée par génération, avec leur description.Les noms anglais sont entre parenthèses et en italique.
-La première génération
-Grognon (Grognours au Québec) (Grumpy Bear), de couleur bleue avec un nuage, de la pluie et un éclair sur le ventre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bisounours</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La première génération</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Grognon (Grognours au Québec) (Grumpy Bear), de couleur bleue avec un nuage, de la pluie et un éclair sur le ventre.
 Grosbisou (Dounours au Québec) (Tenderheart Bear), de couleur rouge foncé, avec un cœur sur le ventre.
 Groschéri (Cupinours au Québec) (Love-A-Lot Bear), de couleur rose vif, avec deux cœurs sur le ventre.
 Groscopain (Copinours au Québec) (Friend Bear), de couleur orange , avec deux fleurs sur le ventre.
@@ -528,9 +577,43 @@
 Grosgâteau (Fêtalours au Québec) (Birthday Bear), de couleur jaune pâle, avec un gros gâteau sur le ventre.
 Grosjojo (Solours au Québec) (Funshine Bear), de couleur jaune citron, avec un soleil sur le ventre.
 Grostaquin (Désirnours au Québec) (Wish Bear), de couleur bleu-vert pastel, avec une étoile filante jaune orangé sur le ventre.
-Grosveinard (Chançours au Québec) (Good Luck Bear), de couleur verte, avec un trèfle sur le ventre.
-La deuxième génération (années 1980-2000)
-Dans les années 2000, les couleurs des bisounours ont été changées, à l'exception de celle de Grosfasol.
+Grosveinard (Chançours au Québec) (Good Luck Bear), de couleur verte, avec un trèfle sur le ventre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bisounours</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La deuxième génération (années 1980-2000)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans les années 2000, les couleurs des bisounours ont été changées, à l'exception de celle de Grosfasol.
 Groscadeau (Gentilours au Québec) (Share Bear), de couleur mauve, avec un milkshake rose sur le ventre, puis 2 sucettes qui se croisent.
 Groscascou (Ourson Surprise au Québec) (Surprise Bear), de couleur bleue, puis violette, avec une boîte d'où sort une étoile sur le ventre.
 Groschampion (Championours au Québec) (Champ Bear), de couleur jaune, puis bleue, avec une coupe sur le ventre.
@@ -541,16 +624,84 @@
 Maminours (Gramanours au Québec) (Grams Bear), de couleur indigo, avec une rose sur le ventre et un châle sur les épaules.
 Take Care Bear (Take Care Bear), de couleur orange avec une pomme sur le ventre, puis de couleur violette avec un cœur serrant une étoile.
 Ti' coquin (Tirnours au Québec) (Baby Tugs Bear), de couleur bleu ciel, avec une étoile dans un tissu bleu sur le ventre.
-Ti' coquine (Sernours au Québec) (Baby Hugs Bear), de couleur rose clair, avec une étoile dans un cœur rose sur le ventre.
-La troisième génération (depuis 2004)
-Toulemur le bisounours
+Ti' coquine (Sernours au Québec) (Baby Hugs Bear), de couleur rose clair, avec une étoile dans un cœur rose sur le ventre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bisounours</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La troisième génération (depuis 2004)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Toulemur le bisounours
 Sixtoune la bisounours
 « America Cares Bear » : protège l'Amérique
 « Do-Your-Best Bear »
 « Laugh-A-Lot Bear »
-« Day Dream Bear »
-La quatrième génération (depuis 2007)
-Toubisou, de couleur marron, avec un cœur sur le ventre
+« Day Dream Bear »</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bisounours</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La quatrième génération (depuis 2007)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toubisou, de couleur marron, avec un cœur sur le ventre
 Toucâlin, de couleur rose, avec un arc-en-ciel sur le ventre
 Touronchon, de couleur bleue, avec un nuage pluvieux et des petits cœurs de pluie sur le ventre
 Tougentille, de couleur violette, avec deux miroirs à manche croisés sur le ventre
@@ -577,8 +728,43 @@
 Ticoquine, de couleur rose clair, avec une étoile dans un cœur rose sur le ventre.
 Toucurieux, oursonne rose et nièce de Toubisou, avec un cœur à plusieurs couches de différentes couleurs sur le ventre
 Précision annexe : Certains bisounours listés ici ne sont pas vérifiables à travers les sources de la rubrique, mais certains sont bien présents dans certains épisodes réguliers ou exclusifs.
-Les cousins des Bisounours
-Toubrave le lion (Brave-Cœur au Québec) (Brave Heart Lion)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bisounours</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les cousins des Bisounours</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Toubrave le lion (Brave-Cœur au Québec) (Brave Heart Lion)
 Toucâlin le pinguoin (Cœur Douillet au Québec) (Cozy Heart Penguin)
 Toucostaud l'éléphant (Tonne de Cœur au Québec) (Lotsa Heart Elephant)
 Toucourage le cheval (Noble-Cœur au Québec) (Noble Heart Horse)
@@ -593,31 +779,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bisounours</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bisounours</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Les films</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les Bisounours, le film (Les Calinours, le film au Québec) (1985)
 Les Bisounours 2 : Une nouvelle génération (Les Calinours 2 : Une nouvelle génération au Québec) (1986)
@@ -629,31 +817,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bisounours</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bisounours</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Jeux vidéo</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2005 : Care Bears: Care Quest sur Game Boy Advance. Développé par Sirius Games et publié par The Game Factory Inc. Le 21 octobre 2005. Jeu de plateforme.
 2004 : Care Bears: Let's Have A Ball sur Windows. Publié par ValuSoft le 7 août 2004.
@@ -662,63 +852,67 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bisounours</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bisounours</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Dans le langage courant</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom français de la franchise est une contraction des deux mots « bisou » et « nounours ». Cependant, au Canada francophone, où le mot « bizoune » est l'équivalent, en français québécois[1], du mot bite en français de France, les ours sont appelés « les Calinours »[2], contraction des mots « câlin » et « ours ».
-L'expression « On ne vit pas dans le monde des Bisounours » est passée dans le langage courant pour signifier qu'on ne vit pas dans un monde idéal où tout le monde serait gentil[3].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom français de la franchise est une contraction des deux mots « bisou » et « nounours ». Cependant, au Canada francophone, où le mot « bizoune » est l'équivalent, en français québécois, du mot bite en français de France, les ours sont appelés « les Calinours », contraction des mots « câlin » et « ours ».
+L'expression « On ne vit pas dans le monde des Bisounours » est passée dans le langage courant pour signifier qu'on ne vit pas dans un monde idéal où tout le monde serait gentil.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bisounours</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bisounours</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bisounours</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Les Bisounours dans les autres langues</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Allemand : Die Glücksbärchis
